--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/MONTANA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/MONTANA_2010.xlsx
@@ -360,45 +360,41 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio de Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Mexicali</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.027</v>
       </c>
     </row>
     <row r="3">
@@ -407,54 +403,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAMARGO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Camargo</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.027</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
+          <t>Delicias</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0.1081</v>
       </c>
     </row>
     <row r="6">
@@ -463,37 +447,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.1351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
+          <t>Distrito Federal</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Venustiano Carranza</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.027</v>
       </c>
     </row>
     <row r="8">
@@ -502,54 +478,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DOCTOR MORA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.1100000000000005E-2</t>
-        </is>
+          <t>Doctor Mora</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>SALAMANCA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+          <t>Salamanca</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="11">
@@ -558,54 +522,42 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.1351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AJUCHITLAN DEL PROGRESO</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Ajuchitlan Del Progreso</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.027</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>JOSE AZUETA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Jose Azueta</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.027</v>
       </c>
     </row>
     <row r="14">
@@ -614,71 +566,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AYUTLA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+          <t>Ayutla</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.027</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>TIZAPAN EL ALTO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Tizapan El Alto</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.027</v>
       </c>
     </row>
     <row r="18">
@@ -687,71 +623,55 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.1081</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MEXICO</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Tlalnepantla De Baz</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.027</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>TULTITLAN</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Tultitlan</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.027</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>VILLA GUERRERO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+          <t>Villa Guerrero</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="22">
@@ -760,37 +680,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.1081</t>
-        </is>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0.1081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MICHOACAN DE OCAMPO</t>
+          <t>Michoacan De Ocampo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.027</v>
       </c>
     </row>
     <row r="24">
@@ -799,37 +711,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OCOTLAN DE MORELOS</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Ocotlan De Morelos</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.027</v>
       </c>
     </row>
     <row r="26">
@@ -838,37 +742,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.027</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Puebla</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.027</v>
       </c>
     </row>
     <row r="28">
@@ -877,37 +773,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CABORCA</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8.1100000000000005E-2</t>
-        </is>
+          <t>Caborca</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -916,105 +804,81 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8.1100000000000005E-2</t>
-        </is>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0.08110000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATZALAN</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+          <t>Atzalan</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>CORDOBA</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.027</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+          <t>Coscomatepec</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.4100000000000002E-2</t>
-        </is>
+          <t>Huatusco</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0.0541</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>IXHUATLAN DE MADERO</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Ixhuatlan De Madero</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.027</v>
       </c>
     </row>
     <row r="36">
@@ -1023,37 +887,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.2162</t>
-        </is>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>0.2162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MIGUEL AUZA</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+          <t>Miguel Auza</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.027</v>
       </c>
     </row>
     <row r="38">
@@ -1062,21 +918,17 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.7E-2</t>
-        </is>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.027</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1084,15 +936,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/MONTANA_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/MONTANA_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tultitlan</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -737,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -768,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -799,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -830,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -843,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -856,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -869,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -882,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -913,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
